--- a/config_Release/fishing_match_hall_config.xlsx
+++ b/config_Release/fishing_match_hall_config.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game|比赛场比赛" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>id|行号</t>
   </si>
@@ -73,13 +74,17 @@
   <si>
     <t>VIP</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以领福利的时候，点击列表还时领奖的操作，不是打开炮台解锁界面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +113,21 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,7 +188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +200,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -198,6 +221,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390151</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="542925"/>
+          <a:ext cx="2990476" cy="1057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,11 +526,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,4 +646,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>